--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\english-course\dotnet-english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3D4276-9EEE-4DC5-955F-E9824BF97C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEF302D-FC70-4354-A441-A610F0214EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14610" xr2:uid="{87334095-1702-487E-A003-54214632E0EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14610" activeTab="3" xr2:uid="{87334095-1702-487E-A003-54214632E0EC}"/>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14610" xr2:uid="{2C45AA0F-092A-4CCF-A5B0-234883E5846A}"/>
   </bookViews>
   <sheets>
@@ -1684,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59661348-E0F4-4E67-8B38-81E6232A7A8E}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
     <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -4811,7 +4811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A78638-2C29-40CD-B8C4-3FDFFC05F798}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
